--- a/DataSheets/DataSheet.xlsx
+++ b/DataSheets/DataSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="161">
   <si>
     <t>Scenario_ID</t>
   </si>
@@ -499,6 +499,9 @@
   </si>
   <si>
     <t>SC_60</t>
+  </si>
+  <si>
+    <t>IBM</t>
   </si>
 </sst>
 </file>
@@ -828,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,7 +916,7 @@
         <v>92</v>
       </c>
       <c r="K2" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
